--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>0.2028382723242572</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-1.120856461469888</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>-0.5959239132369731</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>0.2946875655135184</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>0.6309321758273256</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.242549344471122</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>2.01634251950924</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>1.180122656701199</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>1.939772997598466</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.381744454873757</v>
+        <v>0.9006569003772169</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.090021059558644</v>
+        <v>0.4141666450523163</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.404039427736437</v>
+        <v>1.298949644080372</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.084642581417584</v>
+        <v>0.7446484179501223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.593617458167307</v>
+        <v>1.485127130420993</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.521991363853026</v>
+        <v>0.8988967199517361</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.885212754467758</v>
+        <v>1.938044824544427</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.6904035303825</v>
+        <v>1.197301207077017</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.877372574190161</v>
+        <v>1.730502563828185</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.014077225132471</v>
+        <v>1.20920901052266</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.296241910075758</v>
+        <v>2.211325510218898</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.948889539247078</v>
+        <v>1.513838358900466</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.120504106595632</v>
+        <v>1.095903126316466</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.381641980784787</v>
+        <v>1.063472944477306</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-1.841794035573197</v>
+        <v>0.8137456736830195</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.859952625832229</v>
+        <v>1.30966355756772</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.2827693069175186</v>
+        <v>-1.434438137829841</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>6.200092505048471</v>
+        <v>0.8159375071586261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.133246428602353</v>
+        <v>1.85385197842538</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.260264546812519</v>
+        <v>1.2808239555127</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.692247441448246</v>
+        <v>-0.6079479926716203</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.168821580544521</v>
+        <v>0.8021760422591839</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.09977030619552352</v>
+        <v>-0.06520462171909491</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.359191874382004</v>
+        <v>0.7367476213790747</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6151910652193671</v>
+        <v>0.5869668956646645</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.258496331371473</v>
+        <v>0.8208952814083625</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>-0.5865396705125869</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>0.8461488352962343</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>2.46453841416181</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>1.283106670049072</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>1.024488446359717</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>0.883996728309433</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9006569003772169</v>
+        <v>-0.2650887206215868</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.4141666450523163</v>
+        <v>0.7934423576064997</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.298949644080372</v>
+        <v>2.011885157458759</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.7446484179501223</v>
+        <v>1.708833114833652</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.485127130420993</v>
+        <v>1.582403480979067</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>0.8988967199517361</v>
+        <v>1.315455703544299</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.938044824544427</v>
+        <v>2.232192661479382</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.197301207077017</v>
+        <v>1.471326103602411</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.730502563828185</v>
+        <v>1.672539262716755</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.20920901052266</v>
+        <v>1.230669741902624</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.211325510218898</v>
+        <v>1.547454231976442</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.513838358900466</v>
+        <v>1.200013281595735</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.095903126316466</v>
+        <v>1.380811415368788</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.063472944477306</v>
+        <v>1.063817241834708</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.8137456736830195</v>
+        <v>-0.9147268599428826</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>1.30966355756772</v>
+        <v>0.1022244835662045</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.434438137829841</v>
+        <v>-0.6863413708432242</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.8159375071586261</v>
+        <v>1.199013851879926</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.85385197842538</v>
+        <v>3.676169537136298</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.2808239555127</v>
+        <v>1.620572283829613</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.6079479926716203</v>
+        <v>-0.3214161021417694</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.8021760422591839</v>
+        <v>0.7147372843446353</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.06520462171909491</v>
+        <v>-0.968109702189679</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.7367476213790747</v>
+        <v>0.7595446561616592</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5869668956646645</v>
+        <v>1.686416487556031</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.8208952814083625</v>
+        <v>0.8971523338365817</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.6863413708432242</v>
+        <v>-1.272609278145864</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>1.199013851879926</v>
+        <v>0.7102324065039856</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>3.676169537136298</v>
+        <v>3.414057840588947</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.620572283829613</v>
+        <v>1.512751839239068</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.3214161021417694</v>
+        <v>-0.0421033901841894</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.7147372843446353</v>
+        <v>0.9482719518098204</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.968109702189679</v>
+        <v>-0.7190724997773068</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.7595446561616592</v>
+        <v>0.881597784434196</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.686416487556031</v>
+        <v>1.774363263045231</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.8971523338365817</v>
+        <v>0.9714810761510817</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_summer.xlsx
@@ -451,7 +451,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.8461488352962343</v>
+        <v>0.8461488352962565</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -468,7 +468,7 @@
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.283106670049072</v>
+        <v>1.28310667004905</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -485,7 +485,7 @@
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.883996728309433</v>
+        <v>0.8839967283094108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,7 +496,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.2650887206215868</v>
+        <v>-0.265088720621609</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -513,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>2.011885157458759</v>
+        <v>2.011885157458737</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.708833114833652</v>
+        <v>1.708833114833608</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,7 +536,7 @@
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.315455703544299</v>
+        <v>1.315455703544322</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -547,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.232192661479382</v>
+        <v>2.232192661479337</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.471326103602411</v>
+        <v>1.471326103602433</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,7 +564,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.672539262716755</v>
+        <v>1.672539262716777</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -587,7 +587,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.200013281595735</v>
+        <v>1.200013281595758</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.380811415368788</v>
+        <v>1.38081141536881</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.063817241834708</v>
+        <v>1.063817241834686</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.9147268599428826</v>
+        <v>-0.9147268599429048</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.1022244835662045</v>
+        <v>0.1022244835662267</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -632,7 +632,7 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.272609278145864</v>
+        <v>-1.272609278145886</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>3.414057840588947</v>
+        <v>3.414057840588924</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.512751839239068</v>
+        <v>1.51275183923909</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.0421033901841894</v>
+        <v>-0.0421033901841561</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.9482719518098204</v>
+        <v>0.9482719518097982</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.7190724997773068</v>
+        <v>-0.7190724997772957</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.881597784434196</v>
+        <v>0.8815977844341738</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -706,7 +706,7 @@
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.9714810761510817</v>
+        <v>0.9714810761510373</v>
       </c>
     </row>
   </sheetData>
